--- a/data/trans_camb/P28B_2_R-Edad-trans_camb.xlsx
+++ b/data/trans_camb/P28B_2_R-Edad-trans_camb.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K31"/>
+  <dimension ref="A1:K32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -632,47 +632,47 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>-5,79</t>
+          <t>-2,89</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>-4,93</t>
+          <t>-4,04</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>-7,57</t>
+          <t>4,55</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>-10,46</t>
+          <t>-6,15</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>-8,8</t>
+          <t>-9,35</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>-15,63</t>
+          <t>-19,07</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>-8,42</t>
+          <t>-5,01</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>-7,22</t>
+          <t>-7,53</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>-11,88</t>
+          <t>-8,29</t>
         </is>
       </c>
     </row>
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-17,81; 5,51</t>
+          <t>-16,64; 10,61</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-17,82; 7,46</t>
+          <t>-19,17; 7,26</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-19,15; 4,11</t>
+          <t>-12,12; 22,49</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-23,23; 1,36</t>
+          <t>-23,82; 12,79</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-21,11; 3,3</t>
+          <t>-26,05; 6,99</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-27,18; -5,25</t>
+          <t>-34,45; -5,62</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-17,76; 0,25</t>
+          <t>-16,77; 8,12</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-16,51; 1,94</t>
+          <t>-17,54; 4,75</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-20,77; -4,05</t>
+          <t>-19,37; 3,54</t>
         </is>
       </c>
     </row>
@@ -738,47 +738,47 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>-37,59%</t>
+          <t>-29,64%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>-32,02%</t>
+          <t>-41,44%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>-49,11%</t>
+          <t>46,75%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-46,75%</t>
+          <t>-25,3%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>-39,3%</t>
+          <t>-38,46%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>-69,83%</t>
+          <t>-78,41%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>-43,77%</t>
+          <t>-27,61%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>-37,57%</t>
+          <t>-41,45%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>-61,78%</t>
+          <t>-45,68%</t>
         </is>
       </c>
     </row>
@@ -791,47 +791,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-80,54; 72,58</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-79,29; 85,6</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-87,55; 64,71</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-76,6; 13,6</t>
+          <t>-74,07; 101,31</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-71,74; 27,17</t>
+          <t>-76,37; 73,93</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-88,92; -25,52</t>
+          <t>-100,0; -18,77</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-70,63; 3,9</t>
+          <t>-70,08; 65,03</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-66,27; 15,99</t>
+          <t>-72,57; 45,97</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-83,5; -24,41</t>
+          <t>-79,94; 32,7</t>
         </is>
       </c>
     </row>
@@ -848,47 +848,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-2,83</t>
+          <t>-8,24</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-2,16</t>
+          <t>-2,98</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-1,55</t>
+          <t>-6,98</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-16,51</t>
+          <t>-19,5</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>-15,48</t>
+          <t>-15,32</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-22,26</t>
+          <t>-24,71</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>-9,83</t>
+          <t>-13,79</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>-9,04</t>
+          <t>-9,17</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>-12,0</t>
+          <t>-15,68</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-13,08; 6,11</t>
+          <t>-21,51; 1,47</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-11,78; 7,09</t>
+          <t>-16,56; 9,41</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-11,57; 8,75</t>
+          <t>-19,86; 3,98</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-27,37; -3,09</t>
+          <t>-35,28; -6,35</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-26,97; -3,83</t>
+          <t>-30,24; -1,59</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-31,92; -12,54</t>
+          <t>-38,81; -12,82</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-18,51; -2,39</t>
+          <t>-23,57; -4,97</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-16,75; -0,72</t>
+          <t>-19,26; 0,5</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-20,0; -4,73</t>
+          <t>-25,54; -7,71</t>
         </is>
       </c>
     </row>
@@ -954,47 +954,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>-27,4%</t>
+          <t>-69,94%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-20,87%</t>
+          <t>-25,26%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>-14,96%</t>
+          <t>-59,24%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-63,17%</t>
+          <t>-68,82%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>-59,22%</t>
+          <t>-54,09%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>-85,16%</t>
+          <t>-87,22%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>-53,3%</t>
+          <t>-69,13%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>-49,01%</t>
+          <t>-45,97%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>-65,06%</t>
+          <t>-78,59%</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-81,53; 113,03</t>
+          <t>-100,0; 72,26</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-79,83; 156,11</t>
+          <t>-84,35; 226,25</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-75,41; 164,8</t>
+          <t>-100,0; 121,89</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-84,76; -3,18</t>
+          <t>-91,29; -25,32</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-82,37; -14,61</t>
+          <t>-84,3; -6,34</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-96,0; -59,98</t>
+          <t>-100,0; -43,93</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-78,19; -13,66</t>
+          <t>-88,08; -19,83</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-73,01; -3,5</t>
+          <t>-74,97; 8,04</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-83,64; -29,18</t>
+          <t>-93,76; -45,28</t>
         </is>
       </c>
     </row>
@@ -1064,47 +1064,47 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>-19,86</t>
+          <t>-15,52</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>-25,67</t>
+          <t>-22,25</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>-23,92</t>
+          <t>-16,72</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>-18,88</t>
+          <t>-19,64</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>-20,32</t>
+          <t>-19,2</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>-17,69</t>
+          <t>-16,26</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>-19,32</t>
+          <t>-18,05</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>-22,82</t>
+          <t>-20,4</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>-20,67</t>
+          <t>-16,48</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-34,08; -7,93</t>
+          <t>-30,01; -1,37</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-38,49; -14,56</t>
+          <t>-37,63; -10,35</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-36,48; -12,98</t>
+          <t>-31,6; -1,86</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-28,05; -10,39</t>
+          <t>-29,58; -9,54</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-30,38; -12,58</t>
+          <t>-30,57; -9,03</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-27,52; -9,24</t>
+          <t>-27,11; -5,58</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-25,92; -11,03</t>
+          <t>-27,01; -9,9</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-30,3; -15,72</t>
+          <t>-28,33; -11,52</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-28,95; -13,48</t>
+          <t>-25,1; -7,95</t>
         </is>
       </c>
     </row>
@@ -1170,47 +1170,47 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>-63,93%</t>
+          <t>-57,58%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>-82,66%</t>
+          <t>-82,52%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>-77,0%</t>
+          <t>-62,04%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>-65,5%</t>
+          <t>-67,32%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>-70,49%</t>
+          <t>-65,8%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>-61,35%</t>
+          <t>-55,73%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>-64,69%</t>
+          <t>-63,76%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>-76,44%</t>
+          <t>-72,06%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>-69,23%</t>
+          <t>-58,22%</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-83,99; -25,46</t>
+          <t>-84,47; 1,12</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-94,47; -55,65</t>
+          <t>-95,78; -41,0</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-91,07; -48,26</t>
+          <t>-89,03; 0,91</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-80,48; -43,21</t>
+          <t>-84,08; -39,27</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-85,15; -48,8</t>
+          <t>-84,0; -36,25</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-80,51; -38,6</t>
+          <t>-76,54; -19,52</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-75,79; -41,84</t>
+          <t>-79,58; -39,09</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-85,74; -61,46</t>
+          <t>-86,03; -49,58</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-81,21; -52,79</t>
+          <t>-76,05; -33,5</t>
         </is>
       </c>
     </row>
@@ -1280,47 +1280,47 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>-5,4</t>
+          <t>-2,98</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>-8,22</t>
+          <t>-3,57</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>-11,91</t>
+          <t>-8,5</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>-13,16</t>
+          <t>-18,03</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>-13,41</t>
+          <t>-12,53</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>-12,65</t>
+          <t>-14,05</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>-9,66</t>
+          <t>-11,09</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>-11,08</t>
+          <t>-8,42</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>-12,42</t>
+          <t>-11,61</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-12,79; 1,67</t>
+          <t>-10,73; 4,85</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-15,3; -1,28</t>
+          <t>-11,94; 3,62</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-18,25; -6,04</t>
+          <t>-15,37; -3,65</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-20,83; -6,53</t>
+          <t>-27,62; -10,22</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-21,53; -5,89</t>
+          <t>-22,72; -2,31</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-19,89; -5,69</t>
+          <t>-23,66; -4,67</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-15,39; -4,68</t>
+          <t>-17,15; -4,82</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-16,19; -6,22</t>
+          <t>-14,92; -1,82</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-18,1; -7,93</t>
+          <t>-17,8; -5,76</t>
         </is>
       </c>
     </row>
@@ -1386,47 +1386,47 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>-41,53%</t>
+          <t>-35,09%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>-63,22%</t>
+          <t>-42,06%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>-91,62%</t>
+          <t>-100,0%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>-61,68%</t>
+          <t>-81,94%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>-62,83%</t>
+          <t>-56,95%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>-59,29%</t>
+          <t>-63,85%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>-54,96%</t>
+          <t>-70,31%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>-63,0%</t>
+          <t>-53,36%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>-70,66%</t>
+          <t>-73,55%</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-74,75; 23,77</t>
+          <t>-87,78; 124,34</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-87,68; -3,09</t>
+          <t>-90,03; 98,92</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-100,0; -50,17</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-79,41; -36,23</t>
+          <t>-95,94; -57,41</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-81,53; -32,01</t>
+          <t>-79,94; -11,43</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-77,96; -29,91</t>
+          <t>-84,07; -23,55</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-73,57; -31,12</t>
+          <t>-86,4; -32,21</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-78,44; -38,51</t>
+          <t>-75,46; -9,31</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-83,08; -50,51</t>
+          <t>-88,68; -43,88</t>
         </is>
       </c>
     </row>
@@ -1496,47 +1496,47 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>-3,37</t>
+          <t>-0,95</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>-7,55</t>
+          <t>-5,29</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>-5,79</t>
+          <t>-5,31</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>-5,77</t>
+          <t>-7,96</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>-5,89</t>
+          <t>-10,43</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>-9,46</t>
+          <t>-12,08</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>-4,58</t>
+          <t>-3,96</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>-6,86</t>
+          <t>-7,61</t>
         </is>
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>-7,57</t>
+          <t>-8,18</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-9,47; 2,62</t>
+          <t>-8,62; 7,48</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-12,71; -2,53</t>
+          <t>-12,84; 0,57</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-11,58; 0,1</t>
+          <t>-13,47; 0,22</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-15,29; 3,15</t>
+          <t>-21,74; 6,17</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-14,63; 3,81</t>
+          <t>-24,35; 2,46</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-18,83; -0,46</t>
+          <t>-25,97; 0,15</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>-10,09; 1,8</t>
+          <t>-11,36; 3,49</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>-12,02; -1,46</t>
+          <t>-15,19; -0,98</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>-13,04; -2,26</t>
+          <t>-15,6; -2,24</t>
         </is>
       </c>
     </row>
@@ -1602,47 +1602,47 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>-40,36%</t>
+          <t>-14,01%</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>-90,48%</t>
+          <t>-78,22%</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>-69,31%</t>
+          <t>-78,53%</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>-34,62%</t>
+          <t>-40,13%</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>-35,34%</t>
+          <t>-52,55%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>-56,73%</t>
+          <t>-60,88%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>-36,98%</t>
+          <t>-32,05%</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
         <is>
-          <t>-55,3%</t>
+          <t>-61,65%</t>
         </is>
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>-61,09%</t>
+          <t>-66,3%</t>
         </is>
       </c>
     </row>
@@ -1655,47 +1655,47 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-80,95; 64,62</t>
+          <t>-84,83; 374,71</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-100,0; -26,0</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-93,57; 37,38</t>
+          <t>-100,0; inf</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-69,39; 31,29</t>
+          <t>-77,38; 74,63</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-68,93; 36,4</t>
+          <t>-86,51; 30,9</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-83,58; 4,56</t>
+          <t>-91,17; 22,65</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>-64,74; 24,84</t>
+          <t>-71,21; 47,39</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>-76,98; -11,05</t>
+          <t>-87,59; -1,66</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>-82,55; -22,83</t>
+          <t>-92,2; -18,01</t>
         </is>
       </c>
     </row>
@@ -1712,47 +1712,47 @@
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>-10,53</t>
+          <t>-8,72</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>-8,92</t>
+          <t>-9,03</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>-11,9</t>
+          <t>-11,42</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>1,96</t>
+          <t>-8,55</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>-4,43</t>
+          <t>-11,45</t>
         </is>
       </c>
       <c r="H24" s="2" t="inlineStr">
         <is>
-          <t>2,16</t>
+          <t>-9,03</t>
         </is>
       </c>
       <c r="I24" s="2" t="inlineStr">
         <is>
-          <t>-3,53</t>
+          <t>-8,56</t>
         </is>
       </c>
       <c r="J24" s="2" t="inlineStr">
         <is>
-          <t>-6,42</t>
+          <t>-10,33</t>
         </is>
       </c>
       <c r="K24" s="2" t="inlineStr">
         <is>
-          <t>-3,68</t>
+          <t>-10,07</t>
         </is>
       </c>
     </row>
@@ -1765,47 +1765,47 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>-19,77; -3,79</t>
+          <t>-22,25; 0,7</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>-17,95; -1,2</t>
+          <t>-22,69; -0,06</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>-20,45; -5,62</t>
+          <t>-24,98; -2,7</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>-6,24; 15,44</t>
+          <t>-22,91; 4,9</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>-12,09; 1,03</t>
+          <t>-26,04; -0,04</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>-7,04; 15,11</t>
+          <t>-23,07; 7,57</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>-10,11; 3,27</t>
+          <t>-18,3; 0,4</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>-12,25; -1,56</t>
+          <t>-20,51; -2,7</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>-10,42; 4,47</t>
+          <t>-19,82; -0,77</t>
         </is>
       </c>
     </row>
@@ -1818,12 +1818,12 @@
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>-88,52%</t>
+          <t>-76,35%</t>
         </is>
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>-74,95%</t>
+          <t>-79,04%</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
@@ -1833,32 +1833,32 @@
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>27,4%</t>
+          <t>-54,96%</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>-61,87%</t>
+          <t>-73,59%</t>
         </is>
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>30,18%</t>
+          <t>-58,03%</t>
         </is>
       </c>
       <c r="I26" s="2" t="inlineStr">
         <is>
-          <t>-38,15%</t>
+          <t>-62,67%</t>
         </is>
       </c>
       <c r="J26" s="2" t="inlineStr">
         <is>
-          <t>-69,38%</t>
+          <t>-75,63%</t>
         </is>
       </c>
       <c r="K26" s="2" t="inlineStr">
         <is>
-          <t>-39,8%</t>
+          <t>-73,67%</t>
         </is>
       </c>
     </row>
@@ -1871,12 +1871,12 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 15,24</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 47,99</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
@@ -1886,32 +1886,32 @@
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>-70,13; 552,65</t>
+          <t>-100,0; 99,28</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 79,26</t>
+          <t>-100,0; 78,63</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>-76,35; 383,7</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>-79,41; 71,48</t>
+          <t>-91,17; 20,28</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>-91,71; -13,47</t>
+          <t>-94,57; -1,73</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>-85,11; 90,94</t>
+          <t>-100,0; 43,53</t>
         </is>
       </c>
     </row>
@@ -1928,47 +1928,47 @@
       </c>
       <c r="C28" s="2" t="inlineStr">
         <is>
-          <t>-8,13</t>
+          <t>-6,59</t>
         </is>
       </c>
       <c r="D28" s="2" t="inlineStr">
         <is>
-          <t>-9,98</t>
+          <t>-7,84</t>
         </is>
       </c>
       <c r="E28" s="2" t="inlineStr">
         <is>
-          <t>-10,6</t>
+          <t>-7,42</t>
         </is>
       </c>
       <c r="F28" s="2" t="inlineStr">
         <is>
-          <t>-11,09</t>
+          <t>-14,72</t>
         </is>
       </c>
       <c r="G28" s="2" t="inlineStr">
         <is>
-          <t>-12,01</t>
+          <t>-13,78</t>
         </is>
       </c>
       <c r="H28" s="2" t="inlineStr">
         <is>
-          <t>-12,77</t>
+          <t>-16,13</t>
         </is>
       </c>
       <c r="I28" s="2" t="inlineStr">
         <is>
-          <t>-9,72</t>
+          <t>-10,93</t>
         </is>
       </c>
       <c r="J28" s="2" t="inlineStr">
         <is>
-          <t>-11,1</t>
+          <t>-11,08</t>
         </is>
       </c>
       <c r="K28" s="2" t="inlineStr">
         <is>
-          <t>-11,83</t>
+          <t>-12,14</t>
         </is>
       </c>
     </row>
@@ -1981,47 +1981,47 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>-11,99; -3,78</t>
+          <t>-11,17; -2,08</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>-13,8; -5,81</t>
+          <t>-12,47; -3,41</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>-14,52; -6,62</t>
+          <t>-12,24; -2,76</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>-14,49; -6,94</t>
+          <t>-19,98; -9,66</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>-15,81; -8,27</t>
+          <t>-18,77; -8,79</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>-16,31; -8,28</t>
+          <t>-20,9; -11,17</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>-12,54; -6,8</t>
+          <t>-14,31; -7,45</t>
         </is>
       </c>
       <c r="J29" s="2" t="inlineStr">
         <is>
-          <t>-13,87; -8,37</t>
+          <t>-14,56; -7,52</t>
         </is>
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>-14,41; -8,69</t>
+          <t>-15,74; -8,84</t>
         </is>
       </c>
     </row>
@@ -2034,47 +2034,47 @@
       </c>
       <c r="C30" s="2" t="inlineStr">
         <is>
-          <t>-52,35%</t>
+          <t>-52,0%</t>
         </is>
       </c>
       <c r="D30" s="2" t="inlineStr">
         <is>
-          <t>-64,23%</t>
+          <t>-61,85%</t>
         </is>
       </c>
       <c r="E30" s="2" t="inlineStr">
         <is>
-          <t>-68,2%</t>
+          <t>-58,5%</t>
         </is>
       </c>
       <c r="F30" s="2" t="inlineStr">
         <is>
-          <t>-53,15%</t>
+          <t>-61,3%</t>
         </is>
       </c>
       <c r="G30" s="2" t="inlineStr">
         <is>
-          <t>-57,53%</t>
+          <t>-57,36%</t>
         </is>
       </c>
       <c r="H30" s="2" t="inlineStr">
         <is>
-          <t>-61,18%</t>
+          <t>-67,18%</t>
         </is>
       </c>
       <c r="I30" s="2" t="inlineStr">
         <is>
-          <t>-52,89%</t>
+          <t>-58,33%</t>
         </is>
       </c>
       <c r="J30" s="2" t="inlineStr">
         <is>
-          <t>-60,37%</t>
+          <t>-59,11%</t>
         </is>
       </c>
       <c r="K30" s="2" t="inlineStr">
         <is>
-          <t>-64,35%</t>
+          <t>-64,78%</t>
         </is>
       </c>
     </row>
@@ -2087,47 +2087,54 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>-66,48; -29,03</t>
+          <t>-72,12; -19,04</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>-77,41; -44,64</t>
+          <t>-80,22; -33,2</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>-82,16; -49,4</t>
+          <t>-78,99; -23,77</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>-63,81; -35,92</t>
+          <t>-73,42; -44,6</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>-68,53; -43,45</t>
+          <t>-70,34; -41,59</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>-72,13; -45,39</t>
+          <t>-77,75; -51,12</t>
         </is>
       </c>
       <c r="I31" s="2" t="inlineStr">
         <is>
-          <t>-62,29; -40,21</t>
+          <t>-69,15; -42,21</t>
         </is>
       </c>
       <c r="J31" s="2" t="inlineStr">
         <is>
-          <t>-68,97; -49,28</t>
+          <t>-70,37; -43,36</t>
         </is>
       </c>
       <c r="K31" s="2" t="inlineStr">
         <is>
-          <t>-73,36; -51,62</t>
+          <t>-75,37; -51,41</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
